--- a/Kopi.xlsx
+++ b/Kopi.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshaya Balamurugan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lecture Notes\Semester 2\CI - 2\CA - 2\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2146B626-0DFD-44D1-B7A0-8B4C585DAEC8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C61E6B1-BA8B-4A2D-880B-3D590FB84E74}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FD1C8CE8-836A-4565-9E87-23F35AD4A4EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="10215" xr2:uid="{FD1C8CE8-836A-4565-9E87-23F35AD4A4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$15</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
   <si>
     <t xml:space="preserve">Kopi O </t>
   </si>
@@ -87,9 +90,6 @@
     <t>Kopi Gu Yu</t>
   </si>
   <si>
-    <t>Kopi Di Lo</t>
-  </si>
-  <si>
     <t>Kopi Poh</t>
   </si>
   <si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Zero</t>
+  </si>
+  <si>
+    <t>Kopi C Gau Ga Dai</t>
+  </si>
+  <si>
+    <t>Kopi C Po Siew Dai</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -206,11 +212,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,9 +237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,7 +246,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C01EAA-FFE2-4511-84AE-DABCACA189E5}">
-  <dimension ref="A3:M35"/>
+  <dimension ref="A3:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,501 +586,582 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6" t="s">
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="6" t="s">
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
+  <mergeCells count="69">
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1251,19 +1356,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74529213-8147-4238-820A-F3005522B913}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233A509B-E791-4B5E-B139-562C22540646}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1288,9 +1389,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233A509B-E791-4B5E-B139-562C22540646}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74529213-8147-4238-820A-F3005522B913}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Kopi.xlsx
+++ b/Kopi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lecture Notes\Semester 2\CI - 2\CA - 2\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C61E6B1-BA8B-4A2D-880B-3D590FB84E74}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC26F0E-9D2F-4A5E-BE86-3AE5772390E2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="10215" xr2:uid="{FD1C8CE8-836A-4565-9E87-23F35AD4A4EB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$L$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t xml:space="preserve">Kopi O </t>
   </si>
@@ -42,21 +42,9 @@
     <t>Coffee</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes </t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Sweetness</t>
-  </si>
-  <si>
     <t>Less</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Thin</t>
   </si>
   <si>
@@ -90,21 +78,12 @@
     <t>Kopi Gu Yu</t>
   </si>
   <si>
-    <t>Kopi Poh</t>
-  </si>
-  <si>
     <t>Kopi Peng</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Extra</t>
   </si>
   <si>
@@ -115,6 +94,12 @@
   </si>
   <si>
     <t>Kopi C Po Siew Dai</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Kopi Po</t>
   </si>
 </sst>
 </file>
@@ -152,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -213,19 +198,36 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,29 +239,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,581 +592,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C01EAA-FFE2-4511-84AE-DABCACA189E5}">
-  <dimension ref="A3:N35"/>
+  <dimension ref="A3:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="I4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
+  <mergeCells count="44">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B35:E35"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1165,6 +1012,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D708D99C0A796C4F985772AFB8CA4927" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="83963bbd8bc4ced77544512559df80c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="009ac636-0ef8-45f3-86ba-6a2184ef9c3a" xmlns:ns3="b3d8c9d3-bf40-42be-a650-c2f8ef8b2486" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86ea97c5171df453f9f74ca1ee2b6d08" ns2:_="" ns3:_="">
     <xsd:import namespace="009ac636-0ef8-45f3-86ba-6a2184ef9c3a"/>
@@ -1355,12 +1208,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233A509B-E791-4B5E-B139-562C22540646}">
   <ds:schemaRefs>
@@ -1370,6 +1217,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74529213-8147-4238-820A-F3005522B913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9889EEA9-C748-459D-862B-45D6A60356F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1386,13 +1242,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74529213-8147-4238-820A-F3005522B913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>